--- a/employees_upload.xlsx
+++ b/employees_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C3F0E-D47C-4F56-BCB9-95E72C749E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60D1C4-D21F-47BC-BB78-36DD0514B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17952" yWindow="3624" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
+    <workbookView xWindow="-9780" yWindow="4512" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -57,31 +57,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Demon</t>
+    <t>Rick</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ricky12</t>
+    <t>Alice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ricky11</t>
+    <t>Knect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ricky13</t>
+    <t>Jim</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lebron</t>
+    <t>Bronny</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucifer</t>
   </si>
 </sst>
 </file>
@@ -149,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -157,7 +150,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -495,7 +487,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -523,14 +515,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>70000</v>
       </c>
       <c r="E2" s="2">
         <v>29</v>
@@ -538,97 +532,104 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3">
-        <v>1000</v>
+        <v>70000</v>
       </c>
       <c r="E3" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>70000</v>
+      </c>
       <c r="E4" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>70000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>80000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>39</v>
+        <v>70000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>80000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>20</v>
+        <v>70000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>66666</v>
-      </c>
-      <c r="E8" s="3">
-        <v>66</v>
+        <v>70000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">

--- a/employees_upload.xlsx
+++ b/employees_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60D1C4-D21F-47BC-BB78-36DD0514B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75123720-EFEE-4223-8D90-A29DF6BFEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9780" yWindow="4512" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -57,23 +57,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Rick</t>
+    <t>Jimmy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Alice</t>
+    <t>Frank</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Knect</t>
+    <t>Steve</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Jim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bronny</t>
+    <t>RD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +483,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -515,7 +511,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -532,7 +528,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -544,93 +540,49 @@
         <v>70000</v>
       </c>
       <c r="E3" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="E4" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>70000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>26</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>70000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>29</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>70000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>18</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>70000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>23</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>

--- a/employees_upload.xlsx
+++ b/employees_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75123720-EFEE-4223-8D90-A29DF6BFEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693D88E9-ACBB-443D-B3EF-FE4791C33FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12132" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
+    <workbookView xWindow="-7488" yWindow="3036" windowWidth="23040" windowHeight="12660" xr2:uid="{8A49D460-4A4F-404B-B953-514AD9A72182}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
